--- a/Tasks und To Dos/Arbeitspakete.xlsx
+++ b/Tasks und To Dos/Arbeitspakete.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\UNI\Sem. 5 &amp; 6\SWE\Github\EinkaufsApp-Doku\Tasks und To Dos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="12915" windowHeight="5970"/>
   </bookViews>
@@ -24,27 +29,12 @@
     <t>Gruppe</t>
   </si>
   <si>
-    <t>Arbeits Paket</t>
-  </si>
-  <si>
     <t>doku</t>
   </si>
   <si>
-    <t>Handbuch anhand von momentanen stand anfertigen - rücksprache devs</t>
-  </si>
-  <si>
-    <t>Fertigstellung Struktur der Doku / version 1 des handbuches</t>
-  </si>
-  <si>
-    <t>aktives Schreiben der finalen Doku und des Handbuches</t>
-  </si>
-  <si>
     <t>dev</t>
   </si>
   <si>
-    <t>Fertigstellung login</t>
-  </si>
-  <si>
     <t>Fertigstellung Menü</t>
   </si>
   <si>
@@ -66,9 +56,6 @@
     <t>alle</t>
   </si>
   <si>
-    <t>evaluieren aller Dokumente, die erstellt werden müssen (UMLs…)</t>
-  </si>
-  <si>
     <t>AZ Woche - Dokumentation, Fehlerbehebung, usw</t>
   </si>
   <si>
@@ -76,12 +63,30 @@
   </si>
   <si>
     <t>Dokufertigstellung und Handbuch</t>
+  </si>
+  <si>
+    <t>Handbuch Entwurf erstellen basiert auf Development Status</t>
+  </si>
+  <si>
+    <t>Fertigstellung Login</t>
+  </si>
+  <si>
+    <t>Fertigstellung Struktur der Doku und 1. Version des Handbuchs</t>
+  </si>
+  <si>
+    <t>Evaluation aller Dokumente, die erstellt werden müssen (UMLs…)</t>
+  </si>
+  <si>
+    <t>Anfang Schreiben der finalen Doku und des Handbuchs</t>
+  </si>
+  <si>
+    <t>Meilenstein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -205,14 +210,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,9 +258,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,7 +295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +330,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -499,13 +507,13 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="72.42578125" customWidth="1"/>
+    <col min="3" max="3" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -516,62 +524,62 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>42321</v>
+        <v>42300</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>42328</v>
+        <v>42307</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>42342</v>
+        <v>42314</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>42307</v>
+        <v>42314</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>42314</v>
+        <v>42321</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -579,98 +587,98 @@
         <v>42321</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>42328</v>
+        <v>42321</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>42335</v>
+        <v>42328</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>42342</v>
+        <v>42328</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>42300</v>
+        <v>42328</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>42314</v>
+        <v>42328</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>42321</v>
+        <v>42335</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>42328</v>
+        <v>42342</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>42328</v>
+        <v>42342</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -678,10 +686,10 @@
         <v>42342</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -689,10 +697,10 @@
         <v>42349</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -700,13 +708,16 @@
         <v>42356</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C18">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
